--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -844,10 +844,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>C:\Users\wildg\Documents\UiPath\COVID19KakaoTalk-1.0.26\Docs\Addressbook.xlsx</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>TI-</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1908,6 +1904,10 @@
   </si>
   <si>
     <t>COVID19_SendMail</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>C:\Users\wildg\Downloads\Addressbook.xlsx</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2339,7 +2339,7 @@
   <dimension ref="A1:Z999"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -2400,7 +2400,7 @@
         <v>47</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1">
@@ -2427,7 +2427,7 @@
         <v>48</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="14.25" customHeight="1">
@@ -2494,7 +2494,7 @@
         <v>60</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>79</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="14.25" customHeight="1">
@@ -4784,10 +4784,10 @@
         <v>53</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>81</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="14.25" customHeight="1">
@@ -4795,7 +4795,7 @@
         <v>49</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>59</v>
@@ -4806,10 +4806,10 @@
         <v>58</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>84</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="14.25" customHeight="1">
@@ -4817,10 +4817,10 @@
         <v>48</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>86</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="14.25" customHeight="1">
@@ -4828,10 +4828,10 @@
         <v>51</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>88</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="14.25" customHeight="1">
@@ -4839,10 +4839,10 @@
         <v>55</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>90</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1">
@@ -4853,7 +4853,7 @@
         <v>66</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1">
@@ -4872,7 +4872,7 @@
         <v>68</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C10" s="11" t="s">
         <v>65</v>
@@ -4880,13 +4880,13 @@
     </row>
     <row r="11" spans="1:26" ht="14.25" customHeight="1">
       <c r="A11" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>97</v>
-      </c>
       <c r="C11" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="14.25" customHeight="1"/>
